--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_st03.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_st03.xlsx
@@ -1824,7 +1824,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Downtown Lungmen, "The Ends of the Earth" lounge, ruins
+    <t xml:space="preserve">Downtown Lungmen, 'The Ends of the Earth' lounge, ruins
 </t>
   </si>
   <si>
@@ -2224,7 +2224,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mostima"]   ...Okay then, Miss "Keeper," what are you calling yourself these days?
+    <t xml:space="preserve">[name="Mostima"]   ...Okay then, Miss 'Keeper,' what are you calling yourself these days?
 </t>
   </si>
   <si>
@@ -2280,7 +2280,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mostima"]   Suffering? All right. At least it's less cringey than last time's "Chosen Overseer."
+    <t xml:space="preserve">[name="Mostima"]   Suffering? All right. At least it's less cringey than last time's 'Chosen Overseer.'
 </t>
   </si>
   <si>
@@ -2292,7 +2292,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mostima"]   "Hello. I'm Suffering from the Laterano Notarial Hall. It's a pleasure to meet you."
+    <t xml:space="preserve">[name="Mostima"]   'Hello. I'm Suffering from the Laterano Notarial Hall. It's a pleasure to meet you.'
 </t>
   </si>
   <si>
@@ -2300,7 +2300,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mostima"]   Was "Tomb Knight" better? Or "Super Sticky" from last month? Or "Treasure Guardian" that came earlier than them?
+    <t xml:space="preserve">[name="Mostima"]   Was 'Tomb Knight' better? Or 'Super Sticky' from last month? Or 'Treasure Guardian' that came earlier than them?
 </t>
   </si>
   <si>
@@ -2380,11 +2380,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suffering?"]   Like the first time you blurt out "mama" or "dada?" What a beautiful image.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mostima"]   Haha. Exusiai's first word was "sis." Even though they're not blood related, they still...
+    <t xml:space="preserve">[name="Suffering?"]   Like the first time you blurt out 'mama' or 'dada?' What a beautiful image.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mostima"]   Haha. Exusiai's first word was 'sis.' Even though they're not blood related, they still...
 </t>
   </si>
   <si>
@@ -2400,7 +2400,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mostima"]   Hm... You've followed me this long and I still haven't told you. It might be that you, also my "beloved battle-sister..." have a really bad temper?
+    <t xml:space="preserve">[name="Mostima"]   Hm... You've followed me this long and I still haven't told you. It might be that you, also my 'beloved battle-sister...' have a really bad temper?
 </t>
   </si>
   <si>
@@ -2628,7 +2628,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Guest appearance while taking a walk — "Rat King" of the Lungmen Slums
+    <t xml:space="preserve">Guest appearance while taking a walk — 'Rat King' of the Lungmen Slums
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_st03.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_st03.xlsx
@@ -1820,7 +1820,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">3:21 AM \ Clear
+    <t xml:space="preserve">3:21 A.M. \ Clear
 </t>
   </si>
   <si>
